--- a/biology/Médecine/Terrain_(médical)/Terrain_(médical).xlsx
+++ b/biology/Médecine/Terrain_(médical)/Terrain_(médical).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Terrain_(m%C3%A9dical)</t>
+          <t>Terrain_(médical)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine le terrain est la capacité du corps à guérir et/ou à rester en bonne santé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine le terrain est la capacité du corps à guérir et/ou à rester en bonne santé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Terrain_(m%C3%A9dical)</t>
+          <t>Terrain_(médical)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain est un des composants de la santé et de la guérison.
-Il dépend de la génétique, de l'alimentation (carences nutritionnelles de long, court ou moyen terme), de l'activité physique, de l'état du système immunitaire (infections passées, vaccinations...), des médicaments consommés, des toxiques (tabagisme, alcoolisme, pollutions, stress...), des blessures[2]...
+Il dépend de la génétique, de l'alimentation (carences nutritionnelles de long, court ou moyen terme), de l'activité physique, de l'état du système immunitaire (infections passées, vaccinations...), des médicaments consommés, des toxiques (tabagisme, alcoolisme, pollutions, stress...), des blessures...
 </t>
         </is>
       </c>
